--- a/results/mp/tinybert/corona/confidence/126/desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/desired-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,13 +43,13 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
@@ -58,112 +58,118 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -521,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -640,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.625</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.95</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.592274678111588</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C7">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>95</v>
+        <v>364</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4186046511627907</v>
+        <v>0.2645502645502645</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,169 +864,97 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8839285714285714</v>
+      </c>
+      <c r="L8">
+        <v>99</v>
+      </c>
+      <c r="M8">
+        <v>99</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8780487804878049</v>
+      </c>
+      <c r="L9">
+        <v>72</v>
+      </c>
+      <c r="M9">
+        <v>72</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.852112676056338</v>
+      </c>
+      <c r="L10">
+        <v>121</v>
+      </c>
+      <c r="M10">
+        <v>121</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8">
-        <v>0.9310344827586207</v>
-      </c>
-      <c r="L8">
-        <v>27</v>
-      </c>
-      <c r="M8">
-        <v>27</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.375</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L9">
-        <v>22</v>
-      </c>
-      <c r="M9">
-        <v>22</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="C10">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>29</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L10">
-        <v>45</v>
-      </c>
-      <c r="M10">
-        <v>45</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1407407407407407</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>116</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8627450980392157</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1037,16 +971,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8571428571428571</v>
+        <v>0.85</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,21 +992,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.8518518518518519</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1084,21 +1018,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.8448275862068966</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1110,21 +1044,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.84</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1136,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.8235294117647058</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1162,21 +1096,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.8235294117647058</v>
+        <v>0.8125</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1188,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.8181818181818182</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1214,21 +1148,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7692307692307693</v>
+        <v>0.78</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,21 +1174,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.7692307692307693</v>
+        <v>0.7625</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1266,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.7671232876712328</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L21">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1292,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.76</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1318,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.7407407407407407</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.7368421052631579</v>
+        <v>0.6814621409921671</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,21 +1304,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.72</v>
+        <v>0.6338983050847458</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,21 +1330,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.7136150234741784</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L26">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1422,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.6744186046511628</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L27">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="M27">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1448,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.6736111111111112</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="M28">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.6486486486486487</v>
+        <v>0.5648535564853556</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.6333333333333333</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1526,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.6195652173913043</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L31">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1552,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.6071428571428571</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1578,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.5714285714285714</v>
+        <v>0.4</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1604,33 +1538,163 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.02166666666666667</v>
+      </c>
+      <c r="L34">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.01105651105651106</v>
+      </c>
+      <c r="L35">
+        <v>27</v>
+      </c>
+      <c r="M35">
+        <v>30</v>
+      </c>
+      <c r="N35">
+        <v>0.9</v>
+      </c>
+      <c r="O35">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.01085329341317365</v>
+      </c>
+      <c r="L36">
+        <v>29</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <v>0.97</v>
+      </c>
+      <c r="O36">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K34">
-        <v>0.008022922636103151</v>
-      </c>
-      <c r="L34">
-        <v>14</v>
-      </c>
-      <c r="M34">
-        <v>15</v>
-      </c>
-      <c r="N34">
+      <c r="K37">
+        <v>0.008206565252201762</v>
+      </c>
+      <c r="L37">
+        <v>41</v>
+      </c>
+      <c r="M37">
+        <v>41</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>0.006010171058714748</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>28</v>
+      </c>
+      <c r="N38">
         <v>0.93</v>
       </c>
-      <c r="O34">
+      <c r="O38">
         <v>0.06999999999999995</v>
       </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>1731</v>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39">
+        <v>0.005615801704105344</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>30</v>
+      </c>
+      <c r="N39">
+        <v>0.97</v>
+      </c>
+      <c r="O39">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>5135</v>
       </c>
     </row>
   </sheetData>
